--- a/Mercurio/Documentacao/Mercurio_Requisitos.xlsx
+++ b/Mercurio/Documentacao/Mercurio_Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evely\Documents\Git\Sprint2\Sprint2\Mercurio\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EBED2A-A4E7-44E7-98FE-6BC3A745BCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB67547-E408-46A4-A1EE-8CADFFE2D576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4C19B94-C3EF-41E2-A36D-01C121E4AA85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="83">
   <si>
     <t>Requisito</t>
   </si>
@@ -170,14 +170,136 @@
     <t>Especificação do Analytics / Métricas</t>
   </si>
   <si>
-    <t>Sprint A</t>
+    <t>Módulo de login através do e-mail ou CNPJ e senha</t>
+  </si>
+  <si>
+    <t>Módulo com as informações gerais da empresa e do produto</t>
+  </si>
+  <si>
+    <t>Módulo de recuperação de senha a partir e-mail ou CNPJ</t>
+  </si>
+  <si>
+    <t>Simulação de recuperação de senha do usuário</t>
+  </si>
+  <si>
+    <t>Módulo de apresentação da empresa e equipe</t>
+  </si>
+  <si>
+    <t>Módulo de cadastro de usuário com nome, CNPJ, e-mail, porte e senha.
+Necessário máscara de validação para CPF e e-mail na tela de cadastro</t>
+  </si>
+  <si>
+    <t>Módulo de respostas para dúvidas recorrentes</t>
+  </si>
+  <si>
+    <t>Módulo de simulação financeira do projeto</t>
+  </si>
+  <si>
+    <t>Módulo secundário de recuperação de senha a partir da
+confirmação da nova senha</t>
+  </si>
+  <si>
+    <t>Função de calcular a simulação a partir dos dados fornecidos</t>
+  </si>
+  <si>
+    <t>Módulo com os gráficos gerados e pesquisas disponíveis</t>
+  </si>
+  <si>
+    <t>Função de pesquisa no gráfico por setor</t>
+  </si>
+  <si>
+    <t>Função de pesquisa no gráfico por data</t>
+  </si>
+  <si>
+    <t>Função de pesquisa no gráfico por horário</t>
+  </si>
+  <si>
+    <t>Geração de mapa de calor a partir dos dados obtidos do sensor</t>
+  </si>
+  <si>
+    <t>Função de captura dos dados fornecidos pelo sensor</t>
+  </si>
+  <si>
+    <t>Função de geração de gráficos na tela de Dashboard</t>
+  </si>
+  <si>
+    <t>Função de validação no database dos dados fornecidos pelo usuário</t>
+  </si>
+  <si>
+    <t>Função de inserção no database dos dados fornecidos</t>
+  </si>
+  <si>
+    <t>Representação gráfica das entidades e
+seus relacionamentos no processo</t>
+  </si>
+  <si>
+    <t>Modelo de dados estruturado e padronizado para a implementação no banco de dados</t>
+  </si>
+  <si>
+    <t>Representação visual das principais partes do sistema</t>
+  </si>
+  <si>
+    <t>Definição e documentação das métricas que serão utilizadas para
+medir o desempenho do sistema, bem como os dados que serão coletados e analisados</t>
+  </si>
+  <si>
+    <t>Simulação do gráfico a partir dos dados obtidos</t>
+  </si>
+  <si>
+    <t>Script com o conjunto de comandos e instruções do banco de dados</t>
+  </si>
+  <si>
+    <t>Representação visual sobre as principais entidades e
+processos do negócio</t>
+  </si>
+  <si>
+    <t>Versão não funcional e simplificada do site</t>
+  </si>
+  <si>
+    <t>Documento com as informações relevantes e pontos
+norteadores do projeto</t>
+  </si>
+  <si>
+    <t>Software para gerenciar e monitorar tarefas, projeto,
+equipe e recursos</t>
+  </si>
+  <si>
+    <t>Software para controle de versões do projeto</t>
+  </si>
+  <si>
+    <t>Identificação, coleta, documentção e verificação das necessidades,
+ expectativas e restrições</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>SP4</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MÉDIA </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,15 +339,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +382,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F492"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFDDB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,15 +446,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -312,6 +481,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFCFDDB"/>
+      <color rgb="FFCBA9E5"/>
       <color rgb="FFF6F492"/>
     </mruColors>
   </colors>
@@ -623,91 +794,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2501117C-80E1-49B2-90E4-A84817801179}">
-  <dimension ref="A3:K58"/>
+  <dimension ref="A3:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="1">
+        <f>SUM(J6,J7,J8,J9)</f>
+        <v>95</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>32</v>
@@ -716,594 +861,1057 @@
         <v>5</v>
       </c>
       <c r="F6" s="3">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="15">
+        <f xml:space="preserve"> SUM(E10,E11,E12)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="15">
+        <f>SUM(E8,E13)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="3">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="15">
+        <f xml:space="preserve"> SUM(E7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="15">
+        <f>SUM(E6,E9)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="1">
+        <f>MEDIAN(J6,J7,J8,J9)</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E13" s="3">
         <v>8</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3">
-        <v>21</v>
-      </c>
-      <c r="F14" s="3">
-        <v>19</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3">
-        <v>21</v>
-      </c>
-      <c r="F15" s="3">
-        <v>20</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="3">
-        <v>21</v>
-      </c>
-      <c r="F16" s="3">
-        <v>21</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="3">
-        <v>21</v>
-      </c>
-      <c r="F17" s="3">
-        <v>22</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>23</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="3">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3">
-        <v>15</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>44</v>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="1">
+        <f>SUM(J20,J21,J22,J23)</f>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="3">
-        <v>21</v>
-      </c>
-      <c r="F20" s="3">
-        <v>18</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="13">
+        <v>3</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="15">
+        <f>SUM(E20,E21,E22,E23,E25,E26,E27,E28,E29)</f>
+        <v>52</v>
       </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="3">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
-        <v>16</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>44</v>
+      <c r="E21" s="13">
+        <v>5</v>
+      </c>
+      <c r="F21" s="13">
+        <v>3</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="15">
+        <f>SUM(E24,E35,E37,E38,E39,E40,E41,E42)</f>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="3">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3">
-        <v>17</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E22" s="13">
+        <v>5</v>
+      </c>
+      <c r="F22" s="13">
+        <v>6</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="15">
+        <f xml:space="preserve"> SUM(E30,E31,E36)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="3">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>44</v>
+      <c r="E23" s="13">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13">
+        <v>7</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="15">
+        <f>SUM(E32,E33,E34)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="13">
+        <v>3</v>
+      </c>
+      <c r="F24" s="13">
+        <v>10</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="1">
+        <f>MEDIAN(J20,J21,J22,J23)</f>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="3">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
-        <v>12</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="3">
-        <v>8</v>
-      </c>
-      <c r="F25" s="3">
-        <v>13</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>44</v>
+      <c r="E25" s="13">
+        <v>5</v>
+      </c>
+      <c r="F25" s="13">
+        <v>4</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="13">
+        <v>3</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="13">
+        <v>8</v>
+      </c>
+      <c r="F27" s="13">
+        <v>5</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="13">
+        <v>13</v>
+      </c>
+      <c r="F28" s="13">
+        <v>9</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="13">
+        <v>5</v>
+      </c>
+      <c r="F29" s="13">
+        <v>8</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="13">
+        <v>21</v>
+      </c>
+      <c r="F30" s="13">
+        <v>19</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="13">
+        <v>21</v>
+      </c>
+      <c r="F31" s="13">
+        <v>20</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="13">
+        <v>21</v>
+      </c>
+      <c r="F32" s="13">
+        <v>21</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="13">
+        <v>21</v>
+      </c>
+      <c r="F33" s="13">
+        <v>22</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="13">
+        <v>3</v>
+      </c>
+      <c r="F34" s="13">
+        <v>23</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="13">
+        <v>13</v>
+      </c>
+      <c r="F35" s="13">
+        <v>15</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="13">
+        <v>21</v>
+      </c>
+      <c r="F36" s="13">
+        <v>18</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="13">
+        <v>8</v>
+      </c>
+      <c r="F37" s="13">
+        <v>16</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="13">
+        <v>8</v>
+      </c>
+      <c r="F38" s="13">
+        <v>17</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="13">
+        <v>8</v>
+      </c>
+      <c r="F39" s="13">
+        <v>11</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="13">
+        <v>8</v>
+      </c>
+      <c r="F40" s="13">
+        <v>12</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="13">
+        <v>8</v>
+      </c>
+      <c r="F41" s="13">
+        <v>13</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="B42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E42" s="13">
         <v>8</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F42" s="13">
         <v>14</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="3">
-        <v>5</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="3">
-        <v>21</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="3">
-        <v>13</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="3">
-        <v>21</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="3">
-        <v>21</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="3">
-        <v>3</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="3">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="G42" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB60DF46ACFAB244A8A5512B3CE3774E" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2510a6bdca12ea86b9bbe5e58ca303c8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dc502c4f-8bc7-43a4-9c64-24bb6a7492c2" xmlns:ns4="f2e1bd2b-e37a-4e54-b071-07c17aadc0b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdd0ca03f2c92e3865a88715ede4827f" ns3:_="" ns4:_="">
+    <xsd:import namespace="dc502c4f-8bc7-43a4-9c64-24bb6a7492c2"/>
+    <xsd:import namespace="f2e1bd2b-e37a-4e54-b071-07c17aadc0b7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="dc502c4f-8bc7-43a4-9c64-24bb6a7492c2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="11" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f2e1bd2b-e37a-4e54-b071-07c17aadc0b7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dc502c4f-8bc7-43a4-9c64-24bb6a7492c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC9AF3A0-9EC3-4970-81B9-723D1233E13E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dc502c4f-8bc7-43a4-9c64-24bb6a7492c2"/>
+    <ds:schemaRef ds:uri="f2e1bd2b-e37a-4e54-b071-07c17aadc0b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89AA808A-2A70-42F7-BF84-FFB85CB06F13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3368A052-83DB-4B6C-BD50-B7C1DAAE65CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc502c4f-8bc7-43a4-9c64-24bb6a7492c2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f2e1bd2b-e37a-4e54-b071-07c17aadc0b7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>